--- a/stock_historical_data/1mo/DCMSRIND.NS.xlsx
+++ b/stock_historical_data/1mo/DCMSRIND.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,60 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B31" t="n">
+        <v>215.6000061035156</v>
+      </c>
+      <c r="C31" t="n">
+        <v>215.6000061035156</v>
+      </c>
+      <c r="D31" t="n">
+        <v>215.6000061035156</v>
+      </c>
+      <c r="E31" t="n">
+        <v>215.6000061035156</v>
+      </c>
+      <c r="F31" t="n">
+        <v>215.6000061035156</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>22</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/DCMSRIND.NS.xlsx
+++ b/stock_historical_data/1mo/DCMSRIND.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>backup</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>detect_structure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>1</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>2</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>1</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>2</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2110,7 +2202,12 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/DCMSRIND.NS.xlsx
+++ b/stock_historical_data/1mo/DCMSRIND.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B2" t="n">
-        <v>89.90000152587891</v>
+        <v>87.31006400049303</v>
       </c>
       <c r="C2" t="n">
-        <v>107</v>
+        <v>89.03707918346069</v>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>83.04050885375649</v>
       </c>
       <c r="E2" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>87.78977966308594</v>
-      </c>
+        <v>83.85604095458984</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>4906489</v>
+        <v>390450</v>
       </c>
       <c r="H2" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B3" t="n">
-        <v>92.5</v>
+        <v>89.90000152587891</v>
       </c>
       <c r="C3" t="n">
-        <v>116.75</v>
+        <v>107</v>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>91.5</v>
       </c>
       <c r="F3" t="n">
-        <v>88.26950836181641</v>
+        <v>87.78977966308594</v>
       </c>
       <c r="G3" t="n">
-        <v>12258837</v>
+        <v>4906489</v>
       </c>
       <c r="H3" t="n">
         <v>2022</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B4" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>116.75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81</v>
+      </c>
+      <c r="E4" t="n">
         <v>92</v>
       </c>
-      <c r="C4" t="n">
-        <v>109.75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88.09999847412109</v>
-      </c>
-      <c r="E4" t="n">
-        <v>92.05000305175781</v>
-      </c>
       <c r="F4" t="n">
-        <v>89.27745056152344</v>
+        <v>88.26950836181641</v>
       </c>
       <c r="G4" t="n">
-        <v>6801200</v>
+        <v>12258837</v>
       </c>
       <c r="H4" t="n">
         <v>2022</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B5" t="n">
+        <v>92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.09999847412109</v>
+      </c>
+      <c r="E5" t="n">
         <v>92.05000305175781</v>
       </c>
-      <c r="C5" t="n">
-        <v>125.9000015258789</v>
-      </c>
-      <c r="D5" t="n">
-        <v>91.40000152587891</v>
-      </c>
-      <c r="E5" t="n">
-        <v>112.8000030517578</v>
-      </c>
       <c r="F5" t="n">
-        <v>109.4024658203125</v>
+        <v>89.27745056152344</v>
       </c>
       <c r="G5" t="n">
-        <v>11844605</v>
+        <v>6801200</v>
       </c>
       <c r="H5" t="n">
         <v>2022</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B6" t="n">
-        <v>109.0999984741211</v>
+        <v>92.05000305175781</v>
       </c>
       <c r="C6" t="n">
-        <v>111.6999969482422</v>
+        <v>125.9000015258789</v>
       </c>
       <c r="D6" t="n">
-        <v>80.25</v>
+        <v>91.40000152587891</v>
       </c>
       <c r="E6" t="n">
-        <v>89.65000152587891</v>
+        <v>112.8000030517578</v>
       </c>
       <c r="F6" t="n">
-        <v>86.94974517822266</v>
+        <v>109.4024658203125</v>
       </c>
       <c r="G6" t="n">
-        <v>4643386</v>
+        <v>11844605</v>
       </c>
       <c r="H6" t="n">
         <v>2022</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B7" t="n">
+        <v>109.0999984741211</v>
+      </c>
+      <c r="C7" t="n">
+        <v>111.6999969482422</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>89.65000152587891</v>
       </c>
-      <c r="C7" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>68.19999694824219</v>
-      </c>
-      <c r="E7" t="n">
-        <v>75.65000152587891</v>
-      </c>
       <c r="F7" t="n">
-        <v>73.37142181396484</v>
+        <v>86.94974517822266</v>
       </c>
       <c r="G7" t="n">
-        <v>2451817</v>
+        <v>4643386</v>
       </c>
       <c r="H7" t="n">
         <v>2022</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>89.65000152587891</v>
       </c>
       <c r="C8" t="n">
-        <v>82.59999847412109</v>
+        <v>92.5</v>
       </c>
       <c r="D8" t="n">
-        <v>70.34999847412109</v>
+        <v>68.19999694824219</v>
       </c>
       <c r="E8" t="n">
-        <v>80.59999847412109</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="F8" t="n">
-        <v>78.17232513427734</v>
+        <v>73.37142181396484</v>
       </c>
       <c r="G8" t="n">
-        <v>2078448</v>
+        <v>2451817</v>
       </c>
       <c r="H8" t="n">
         <v>2022</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B9" t="n">
-        <v>81.40000152587891</v>
+        <v>76</v>
       </c>
       <c r="C9" t="n">
-        <v>92.90000152587891</v>
+        <v>82.59999847412109</v>
       </c>
       <c r="D9" t="n">
-        <v>74.80000305175781</v>
+        <v>70.34999847412109</v>
       </c>
       <c r="E9" t="n">
-        <v>91.19999694824219</v>
+        <v>80.59999847412109</v>
       </c>
       <c r="F9" t="n">
-        <v>89.00006866455078</v>
+        <v>78.17232513427734</v>
       </c>
       <c r="G9" t="n">
-        <v>5099602</v>
+        <v>2078448</v>
       </c>
       <c r="H9" t="n">
         <v>2022</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B10" t="n">
-        <v>90.05000305175781</v>
+        <v>81.40000152587891</v>
       </c>
       <c r="C10" t="n">
-        <v>94.55000305175781</v>
+        <v>92.90000152587891</v>
       </c>
       <c r="D10" t="n">
-        <v>75.34999847412109</v>
+        <v>74.80000305175781</v>
       </c>
       <c r="E10" t="n">
-        <v>78.55000305175781</v>
+        <v>91.19999694824219</v>
       </c>
       <c r="F10" t="n">
-        <v>76.65522003173828</v>
+        <v>89.00006866455078</v>
       </c>
       <c r="G10" t="n">
-        <v>4224456</v>
+        <v>5099602</v>
       </c>
       <c r="H10" t="n">
         <v>2022</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B11" t="n">
-        <v>79.59999847412109</v>
+        <v>90.05000305175781</v>
       </c>
       <c r="C11" t="n">
-        <v>86.44999694824219</v>
+        <v>94.55000305175781</v>
       </c>
       <c r="D11" t="n">
-        <v>76.5</v>
+        <v>75.34999847412109</v>
       </c>
       <c r="E11" t="n">
-        <v>78</v>
+        <v>78.55000305175781</v>
       </c>
       <c r="F11" t="n">
-        <v>76.11848449707031</v>
+        <v>76.65522003173828</v>
       </c>
       <c r="G11" t="n">
-        <v>2433110</v>
+        <v>4224456</v>
       </c>
       <c r="H11" t="n">
         <v>2022</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B12" t="n">
-        <v>78.15000152587891</v>
+        <v>79.59999847412109</v>
       </c>
       <c r="C12" t="n">
-        <v>80.44999694824219</v>
+        <v>86.44999694824219</v>
       </c>
       <c r="D12" t="n">
-        <v>68.90000152587891</v>
+        <v>76.5</v>
       </c>
       <c r="E12" t="n">
-        <v>73.19999694824219</v>
+        <v>78</v>
       </c>
       <c r="F12" t="n">
-        <v>71.43426513671875</v>
+        <v>76.11848449707031</v>
       </c>
       <c r="G12" t="n">
-        <v>2586506</v>
+        <v>2433110</v>
       </c>
       <c r="H12" t="n">
         <v>2022</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B13" t="n">
-        <v>73.75</v>
+        <v>78.15000152587891</v>
       </c>
       <c r="C13" t="n">
-        <v>81.75</v>
+        <v>80.44999694824219</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>68.90000152587891</v>
       </c>
       <c r="E13" t="n">
-        <v>73</v>
+        <v>73.19999694824219</v>
       </c>
       <c r="F13" t="n">
-        <v>71.23908996582031</v>
+        <v>71.43426513671875</v>
       </c>
       <c r="G13" t="n">
-        <v>4345682</v>
+        <v>2586506</v>
       </c>
       <c r="H13" t="n">
         <v>2022</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B14" t="n">
-        <v>72.44999694824219</v>
+        <v>73.75</v>
       </c>
       <c r="C14" t="n">
-        <v>78.80000305175781</v>
+        <v>81.75</v>
       </c>
       <c r="D14" t="n">
-        <v>69.25</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
-        <v>72.69999694824219</v>
+        <v>73</v>
       </c>
       <c r="F14" t="n">
-        <v>70.94632720947266</v>
+        <v>71.23908996582031</v>
       </c>
       <c r="G14" t="n">
-        <v>2150931</v>
+        <v>4345682</v>
       </c>
       <c r="H14" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1210,89 +1202,89 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B15" t="n">
-        <v>74</v>
+        <v>72.44999694824219</v>
       </c>
       <c r="C15" t="n">
-        <v>77</v>
+        <v>78.80000305175781</v>
       </c>
       <c r="D15" t="n">
-        <v>62.79999923706055</v>
+        <v>69.25</v>
       </c>
       <c r="E15" t="n">
-        <v>63.65000152587891</v>
+        <v>72.69999694824219</v>
       </c>
       <c r="F15" t="n">
-        <v>62.11463165283203</v>
+        <v>70.94632720947266</v>
       </c>
       <c r="G15" t="n">
-        <v>2200099</v>
+        <v>2150931</v>
       </c>
       <c r="H15" t="n">
         <v>2023</v>
       </c>
       <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>52</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B16" t="n">
-        <v>64.5</v>
+        <v>74</v>
       </c>
       <c r="C16" t="n">
-        <v>73.40000152587891</v>
+        <v>77</v>
       </c>
       <c r="D16" t="n">
-        <v>59</v>
+        <v>62.79999923706055</v>
       </c>
       <c r="E16" t="n">
-        <v>62.20000076293945</v>
+        <v>63.65000152587891</v>
       </c>
       <c r="F16" t="n">
-        <v>61.57424545288086</v>
+        <v>62.11463165283203</v>
       </c>
       <c r="G16" t="n">
-        <v>2972289</v>
+        <v>2200099</v>
       </c>
       <c r="H16" t="n">
         <v>2023</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B17" t="n">
-        <v>63.65000152587891</v>
+        <v>64.5</v>
       </c>
       <c r="C17" t="n">
-        <v>73.80000305175781</v>
+        <v>73.40000152587891</v>
       </c>
       <c r="D17" t="n">
-        <v>60.95000076293945</v>
+        <v>59</v>
       </c>
       <c r="E17" t="n">
-        <v>69.90000152587891</v>
+        <v>62.20000076293945</v>
       </c>
       <c r="F17" t="n">
-        <v>69.19678497314453</v>
+        <v>61.57424545288086</v>
       </c>
       <c r="G17" t="n">
-        <v>1841579</v>
+        <v>2972289</v>
       </c>
       <c r="H17" t="n">
         <v>2023</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B18" t="n">
+        <v>63.65000152587891</v>
+      </c>
+      <c r="C18" t="n">
+        <v>73.80000305175781</v>
+      </c>
+      <c r="D18" t="n">
+        <v>60.95000076293945</v>
+      </c>
+      <c r="E18" t="n">
         <v>69.90000152587891</v>
       </c>
-      <c r="C18" t="n">
-        <v>79.80000305175781</v>
-      </c>
-      <c r="D18" t="n">
-        <v>68.15000152587891</v>
-      </c>
-      <c r="E18" t="n">
-        <v>71.90000152587891</v>
-      </c>
       <c r="F18" t="n">
-        <v>71.17665863037109</v>
+        <v>69.19678497314453</v>
       </c>
       <c r="G18" t="n">
-        <v>2965882</v>
+        <v>1841579</v>
       </c>
       <c r="H18" t="n">
         <v>2023</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B19" t="n">
-        <v>72.05000305175781</v>
+        <v>69.90000152587891</v>
       </c>
       <c r="C19" t="n">
-        <v>84.15000152587891</v>
+        <v>79.80000305175781</v>
       </c>
       <c r="D19" t="n">
-        <v>71.5</v>
+        <v>68.15000152587891</v>
       </c>
       <c r="E19" t="n">
-        <v>79.25</v>
+        <v>71.90000152587891</v>
       </c>
       <c r="F19" t="n">
-        <v>78.45271301269531</v>
+        <v>71.17665863037109</v>
       </c>
       <c r="G19" t="n">
-        <v>5776144</v>
+        <v>2965882</v>
       </c>
       <c r="H19" t="n">
         <v>2023</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B20" t="n">
-        <v>79.34999847412109</v>
+        <v>72.05000305175781</v>
       </c>
       <c r="C20" t="n">
-        <v>119.8000030517578</v>
+        <v>84.15000152587891</v>
       </c>
       <c r="D20" t="n">
-        <v>77.59999847412109</v>
+        <v>71.5</v>
       </c>
       <c r="E20" t="n">
-        <v>116.9000015258789</v>
+        <v>79.25</v>
       </c>
       <c r="F20" t="n">
-        <v>115.7239456176758</v>
+        <v>78.45271301269531</v>
       </c>
       <c r="G20" t="n">
-        <v>20421046</v>
+        <v>5776144</v>
       </c>
       <c r="H20" t="n">
         <v>2023</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1528,36 +1520,36 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B21" t="n">
-        <v>117.4499969482422</v>
+        <v>79.34999847412109</v>
       </c>
       <c r="C21" t="n">
-        <v>150.8000030517578</v>
+        <v>119.8000030517578</v>
       </c>
       <c r="D21" t="n">
-        <v>115.9000015258789</v>
+        <v>77.59999847412109</v>
       </c>
       <c r="E21" t="n">
-        <v>127.6999969482422</v>
+        <v>116.9000015258789</v>
       </c>
       <c r="F21" t="n">
-        <v>126.4152908325195</v>
+        <v>115.7239456176758</v>
       </c>
       <c r="G21" t="n">
-        <v>18331211</v>
+        <v>20421046</v>
       </c>
       <c r="H21" t="n">
         <v>2023</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1581,36 +1573,36 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B22" t="n">
-        <v>130.6999969482422</v>
+        <v>117.4499969482422</v>
       </c>
       <c r="C22" t="n">
-        <v>156.1999969482422</v>
+        <v>150.8000030517578</v>
       </c>
       <c r="D22" t="n">
-        <v>121.75</v>
+        <v>115.9000015258789</v>
       </c>
       <c r="E22" t="n">
-        <v>150.9499969482422</v>
+        <v>127.6999969482422</v>
       </c>
       <c r="F22" t="n">
-        <v>149.4313812255859</v>
+        <v>126.4152908325195</v>
       </c>
       <c r="G22" t="n">
-        <v>8910530</v>
+        <v>18331211</v>
       </c>
       <c r="H22" t="n">
         <v>2023</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B23" t="n">
+        <v>130.6999969482422</v>
+      </c>
+      <c r="C23" t="n">
+        <v>156.1999969482422</v>
+      </c>
+      <c r="D23" t="n">
+        <v>121.75</v>
+      </c>
+      <c r="E23" t="n">
         <v>150.9499969482422</v>
       </c>
-      <c r="C23" t="n">
-        <v>150.9499969482422</v>
-      </c>
-      <c r="D23" t="n">
-        <v>116.25</v>
-      </c>
-      <c r="E23" t="n">
-        <v>125.4499969482422</v>
-      </c>
       <c r="F23" t="n">
-        <v>124.1879272460938</v>
+        <v>149.4313812255859</v>
       </c>
       <c r="G23" t="n">
-        <v>4271838</v>
+        <v>8910530</v>
       </c>
       <c r="H23" t="n">
         <v>2023</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B24" t="n">
+        <v>150.9499969482422</v>
+      </c>
+      <c r="C24" t="n">
+        <v>150.9499969482422</v>
+      </c>
+      <c r="D24" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="E24" t="n">
         <v>125.4499969482422</v>
       </c>
-      <c r="C24" t="n">
-        <v>172.4499969482422</v>
-      </c>
-      <c r="D24" t="n">
-        <v>119.9499969482422</v>
-      </c>
-      <c r="E24" t="n">
-        <v>165.5</v>
-      </c>
       <c r="F24" t="n">
-        <v>163.8350067138672</v>
+        <v>124.1879272460938</v>
       </c>
       <c r="G24" t="n">
-        <v>9970155</v>
+        <v>4271838</v>
       </c>
       <c r="H24" t="n">
         <v>2023</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B25" t="n">
-        <v>166.8000030517578</v>
+        <v>125.4499969482422</v>
       </c>
       <c r="C25" t="n">
-        <v>171.6999969482422</v>
+        <v>172.4499969482422</v>
       </c>
       <c r="D25" t="n">
-        <v>149.5</v>
+        <v>119.9499969482422</v>
       </c>
       <c r="E25" t="n">
-        <v>153.3000030517578</v>
+        <v>165.5</v>
       </c>
       <c r="F25" t="n">
-        <v>151.7577514648438</v>
+        <v>163.8350067138672</v>
       </c>
       <c r="G25" t="n">
-        <v>7975825</v>
+        <v>9970155</v>
       </c>
       <c r="H25" t="n">
         <v>2023</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B26" t="n">
+        <v>166.8000030517578</v>
+      </c>
+      <c r="C26" t="n">
+        <v>171.6999969482422</v>
+      </c>
+      <c r="D26" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="E26" t="n">
         <v>153.3000030517578</v>
       </c>
-      <c r="C26" t="n">
-        <v>196.8000030517578</v>
-      </c>
-      <c r="D26" t="n">
-        <v>150.1000061035156</v>
-      </c>
-      <c r="E26" t="n">
-        <v>185.1000061035156</v>
-      </c>
       <c r="F26" t="n">
-        <v>183.2378387451172</v>
+        <v>151.7577514648438</v>
       </c>
       <c r="G26" t="n">
-        <v>8840531</v>
+        <v>7975825</v>
       </c>
       <c r="H26" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B27" t="n">
-        <v>186.3999938964844</v>
+        <v>153.3000030517578</v>
       </c>
       <c r="C27" t="n">
-        <v>228</v>
+        <v>196.8000030517578</v>
       </c>
       <c r="D27" t="n">
-        <v>182.6499938964844</v>
+        <v>150.1000061035156</v>
       </c>
       <c r="E27" t="n">
-        <v>193.3000030517578</v>
+        <v>185.1000061035156</v>
       </c>
       <c r="F27" t="n">
-        <v>191.3553314208984</v>
+        <v>183.2378387451172</v>
       </c>
       <c r="G27" t="n">
-        <v>9373703</v>
+        <v>8840531</v>
       </c>
       <c r="H27" t="n">
         <v>2024</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B28" t="n">
-        <v>194.9499969482422</v>
+        <v>186.3999938964844</v>
       </c>
       <c r="C28" t="n">
-        <v>197.6499938964844</v>
+        <v>228</v>
       </c>
       <c r="D28" t="n">
-        <v>158</v>
+        <v>182.6499938964844</v>
       </c>
       <c r="E28" t="n">
-        <v>183.1999969482422</v>
+        <v>193.3000030517578</v>
       </c>
       <c r="F28" t="n">
-        <v>181.35693359375</v>
+        <v>191.3553314208984</v>
       </c>
       <c r="G28" t="n">
-        <v>4731898</v>
+        <v>9373703</v>
       </c>
       <c r="H28" t="n">
         <v>2024</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B29" t="n">
-        <v>186.3999938964844</v>
+        <v>194.9499969482422</v>
       </c>
       <c r="C29" t="n">
-        <v>211.8999938964844</v>
+        <v>197.6499938964844</v>
       </c>
       <c r="D29" t="n">
-        <v>183.3999938964844</v>
+        <v>158</v>
       </c>
       <c r="E29" t="n">
-        <v>206.5500030517578</v>
+        <v>183.1999969482422</v>
       </c>
       <c r="F29" t="n">
-        <v>204.4720306396484</v>
+        <v>181.35693359375</v>
       </c>
       <c r="G29" t="n">
-        <v>5957682</v>
+        <v>4731898</v>
       </c>
       <c r="H29" t="n">
         <v>2024</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B30" t="n">
-        <v>207.4499969482422</v>
+        <v>186.3999938964844</v>
       </c>
       <c r="C30" t="n">
-        <v>235.1499938964844</v>
+        <v>211.8999938964844</v>
       </c>
       <c r="D30" t="n">
-        <v>190.25</v>
+        <v>183.3999938964844</v>
       </c>
       <c r="E30" t="n">
-        <v>212.5500030517578</v>
+        <v>206.5500030517578</v>
       </c>
       <c r="F30" t="n">
-        <v>212.5500030517578</v>
+        <v>204.4720306396484</v>
       </c>
       <c r="G30" t="n">
-        <v>6656832</v>
+        <v>5957682</v>
       </c>
       <c r="H30" t="n">
         <v>2024</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2063,56 +2055,514 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B31" t="n">
-        <v>215.6000061035156</v>
+        <v>207.4499969482422</v>
       </c>
       <c r="C31" t="n">
-        <v>223.8000030517578</v>
+        <v>235.1499938964844</v>
       </c>
       <c r="D31" t="n">
-        <v>184</v>
+        <v>190.25</v>
       </c>
       <c r="E31" t="n">
-        <v>210.6999969482422</v>
+        <v>212.5500030517578</v>
       </c>
       <c r="F31" t="n">
-        <v>210.6999969482422</v>
+        <v>212.5500030517578</v>
       </c>
       <c r="G31" t="n">
-        <v>1446001</v>
+        <v>6656832</v>
       </c>
       <c r="H31" t="n">
         <v>2024</v>
       </c>
       <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>18</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B32" t="n">
+        <v>215.6000061035156</v>
+      </c>
+      <c r="C32" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="D32" t="n">
+        <v>184</v>
+      </c>
+      <c r="E32" t="n">
+        <v>210.6999969482422</v>
+      </c>
+      <c r="F32" t="n">
+        <v>210.6999969482422</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1446001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" t="n">
         <v>6</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>22</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B33" t="n">
+        <v>214.3899993896484</v>
+      </c>
+      <c r="C33" t="n">
+        <v>231.8999938964844</v>
+      </c>
+      <c r="D33" t="n">
+        <v>199</v>
+      </c>
+      <c r="E33" t="n">
+        <v>218.9299926757812</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>5411492</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>27</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B34" t="n">
+        <v>219</v>
+      </c>
+      <c r="C34" t="n">
+        <v>222.8899993896484</v>
+      </c>
+      <c r="D34" t="n">
+        <v>192</v>
+      </c>
+      <c r="E34" t="n">
+        <v>202.2700042724609</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>3995692</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>31</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B35" t="n">
+        <v>205</v>
+      </c>
+      <c r="C35" t="n">
+        <v>214.4499969482422</v>
+      </c>
+      <c r="D35" t="n">
+        <v>186.8099975585938</v>
+      </c>
+      <c r="E35" t="n">
+        <v>199.8699951171875</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>5221424</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>35</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B36" t="n">
+        <v>201.8500061035156</v>
+      </c>
+      <c r="C36" t="n">
+        <v>204.8999938964844</v>
+      </c>
+      <c r="D36" t="n">
+        <v>168.6399993896484</v>
+      </c>
+      <c r="E36" t="n">
+        <v>179.6799926757812</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>3066225</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>40</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B37" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>197.3899993896484</v>
+      </c>
+      <c r="D37" t="n">
+        <v>176.1000061035156</v>
+      </c>
+      <c r="E37" t="n">
+        <v>183.5899963378906</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2207779</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>44</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B38" t="n">
+        <v>183.4499969482422</v>
+      </c>
+      <c r="C38" t="n">
+        <v>214</v>
+      </c>
+      <c r="D38" t="n">
+        <v>176.5599975585938</v>
+      </c>
+      <c r="E38" t="n">
+        <v>183.4199981689453</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>4951009</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>48</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B39" t="n">
+        <v>184.1999969482422</v>
+      </c>
+      <c r="C39" t="n">
+        <v>194.6000061035156</v>
+      </c>
+      <c r="D39" t="n">
+        <v>154</v>
+      </c>
+      <c r="E39" t="n">
+        <v>171.1300048828125</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>3044897</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B40" t="n">
+        <v>171.8000030517578</v>
+      </c>
+      <c r="C40" t="n">
+        <v>177</v>
+      </c>
+      <c r="D40" t="n">
+        <v>143</v>
+      </c>
+      <c r="E40" t="n">
+        <v>154.7299957275391</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>1668387</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B41" t="n">
+        <v>155</v>
+      </c>
+      <c r="C41" t="n">
+        <v>169.8999938964844</v>
+      </c>
+      <c r="D41" t="n">
+        <v>142.1100006103516</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159.9499969482422</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>2407052</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>9</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
